--- a/static/document/summary.xlsx
+++ b/static/document/summary.xlsx
@@ -30,39 +30,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Over 50/% /of courses arrive A grade (4/6).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sum2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 web projects development experience - full-stack developer.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sum3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 desk application development experience - software developer (tkinter ).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sum4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 C# .NET Framework solution improvement experience.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sum5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Over half year internship experience.</t>
+    <t>5 web projects development experience - full-stack developer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 desk application development experience - software developer (tkinter ).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 C# .NET Framework project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 year local international company work experience.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graduate with merit - 66.7% of courses arrive A grade (4/6).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -444,28 +444,28 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -473,10 +473,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
